--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136086.9114731123</v>
+        <v>11490.26407868843</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9223487.193285728</v>
+        <v>9167573.323130397</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22169008.90630312</v>
+        <v>22176453.17582963</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4080850.930083846</v>
+        <v>4080617.80026617</v>
       </c>
     </row>
     <row r="11">
@@ -8695,16 +8695,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N11" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O11" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P11" t="n">
         <v>95.50771753390021</v>
@@ -8789,7 +8789,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8856,7 +8856,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N13" t="n">
         <v>62.89780050171086</v>
@@ -9643,16 +9643,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N23" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O23" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P23" t="n">
         <v>95.50771753390021</v>
@@ -9737,7 +9737,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9804,7 +9804,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N25" t="n">
         <v>62.89780050171086</v>
@@ -11065,16 +11065,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L41" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M41" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N41" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O41" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P41" t="n">
         <v>95.50771753390021</v>
@@ -11159,7 +11159,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11226,7 +11226,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M43" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N43" t="n">
         <v>62.89780050171086</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.97480228639999</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K44" t="n">
-        <v>77.60291342766286</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L44" t="n">
-        <v>58.99876929881117</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M44" t="n">
-        <v>33.65816793912805</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N44" t="n">
-        <v>29.54237978104271</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O44" t="n">
-        <v>41.36599235998582</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P44" t="n">
-        <v>70.15441326031711</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.3423827029069</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>70.21392947460487</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K45" t="n">
-        <v>41.06252158333071</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L45" t="n">
-        <v>8.423182087426255</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P45" t="n">
-        <v>19.5283497406852</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.47761536183195</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6365977934563</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L46" t="n">
-        <v>60.18264937930154</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M46" t="n">
-        <v>60.16297057655852</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N46" t="n">
-        <v>50.7955347526062</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O46" t="n">
-        <v>67.4361694735309</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P46" t="n">
-        <v>76.9578092403323</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1825902111655</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H44" t="n">
-        <v>328.0030935389889</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I44" t="n">
-        <v>167.2914106341195</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>79.50566485817191</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S44" t="n">
-        <v>183.494712897039</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1924047410046</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7441855184499</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H45" t="n">
-        <v>106.4471622989392</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I45" t="n">
-        <v>68.761749468207</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.94669922618534</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S45" t="n">
-        <v>160.5508486671644</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T45" t="n">
-        <v>197.7490015828257</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9019523675037</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4885198403462</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7598506100387</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I46" t="n">
-        <v>140.3401468734729</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J46" t="n">
-        <v>57.83529218611378</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.08791033046782</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R46" t="n">
-        <v>154.7009843173077</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S46" t="n">
-        <v>215.2600989804104</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7987169418005</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354467.2074144929</v>
+        <v>354063.5019999893</v>
       </c>
     </row>
   </sheetData>
@@ -26325,22 +26325,22 @@
         <v>70000.02111109273</v>
       </c>
       <c r="F2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="G2" t="n">
-        <v>70000.02111109273</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="H2" t="n">
-        <v>70000.02111109273</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="I2" t="n">
         <v>70000.02111109273</v>
       </c>
       <c r="J2" t="n">
+        <v>70000.02111109273</v>
+      </c>
+      <c r="K2" t="n">
         <v>70000.02111109272</v>
-      </c>
-      <c r="K2" t="n">
-        <v>70000.02111109273</v>
       </c>
       <c r="L2" t="n">
         <v>70000.02111109272</v>
@@ -26349,13 +26349,13 @@
         <v>70000.02111109272</v>
       </c>
       <c r="N2" t="n">
-        <v>70000.02111109273</v>
+        <v>70000.02111109272</v>
       </c>
       <c r="O2" t="n">
         <v>70000.02111109272</v>
       </c>
       <c r="P2" t="n">
-        <v>70893.33345427411</v>
+        <v>70000.02111109275</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29189.9028884804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>15730.06662970748</v>
       </c>
       <c r="P4" t="n">
-        <v>11816.09571883433</v>
+        <v>15730.06662970748</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>5118.204831146673</v>
       </c>
       <c r="P5" t="n">
-        <v>6074.278792600922</v>
+        <v>5118.204831146673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138415</v>
+        <v>-21901.42258717318</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138415</v>
+        <v>-21901.42258717318</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138415</v>
+        <v>-21901.42258717318</v>
       </c>
       <c r="E6" t="n">
-        <v>-139471.2373202996</v>
+        <v>-154163.9464743156</v>
       </c>
       <c r="F6" t="n">
-        <v>49151.74965023857</v>
+        <v>34459.04049622253</v>
       </c>
       <c r="G6" t="n">
-        <v>49151.74965023858</v>
+        <v>34459.04049622253</v>
       </c>
       <c r="H6" t="n">
-        <v>49151.74965023858</v>
+        <v>34459.04049622253</v>
       </c>
       <c r="I6" t="n">
-        <v>49151.74965023858</v>
+        <v>34459.04049622256</v>
       </c>
       <c r="J6" t="n">
-        <v>49151.74965023857</v>
+        <v>34459.04049622256</v>
       </c>
       <c r="K6" t="n">
-        <v>49151.74965023858</v>
+        <v>34459.04049622254</v>
       </c>
       <c r="L6" t="n">
-        <v>49151.74965023857</v>
+        <v>34459.04049622254</v>
       </c>
       <c r="M6" t="n">
-        <v>49151.74965023857</v>
+        <v>34459.04049622254</v>
       </c>
       <c r="N6" t="n">
-        <v>49151.74965023858</v>
+        <v>34459.04049622254</v>
       </c>
       <c r="O6" t="n">
-        <v>49151.74965023857</v>
+        <v>34459.04049622254</v>
       </c>
       <c r="P6" t="n">
-        <v>23813.05605435845</v>
+        <v>34459.04049622257</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="P3" t="n">
-        <v>278.6366418624276</v>
+        <v>234.7800381259942</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>43.85660373643341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31767,7 +31767,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M11" t="n">
         <v>165.7299311340341</v>
@@ -31776,7 +31776,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P11" t="n">
         <v>135.7252782213693</v>
@@ -31791,7 +31791,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U11" t="n">
         <v>0.07550714794001816</v>
@@ -31861,7 +31861,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R12" t="n">
         <v>31.35420961992052</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H13" t="n">
         <v>3.764178316183975</v>
@@ -31928,7 +31928,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N13" t="n">
         <v>64.78774396352233</v>
@@ -31940,13 +31940,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R13" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T13" t="n">
         <v>1.808960949495364</v>
@@ -32715,7 +32715,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M23" t="n">
         <v>165.7299311340341</v>
@@ -32724,7 +32724,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P23" t="n">
         <v>135.7252782213693</v>
@@ -32739,7 +32739,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U23" t="n">
         <v>0.07550714794001816</v>
@@ -32809,7 +32809,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R24" t="n">
         <v>31.35420961992052</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H25" t="n">
         <v>3.764178316183975</v>
@@ -32876,7 +32876,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N25" t="n">
         <v>64.78774396352233</v>
@@ -32888,13 +32888,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R25" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T25" t="n">
         <v>1.808960949495364</v>
@@ -34137,7 +34137,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L41" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M41" t="n">
         <v>165.7299311340341</v>
@@ -34146,7 +34146,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O41" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P41" t="n">
         <v>135.7252782213693</v>
@@ -34161,7 +34161,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T41" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U41" t="n">
         <v>0.07550714794001816</v>
@@ -34231,7 +34231,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R42" t="n">
         <v>31.35420961992052</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H43" t="n">
         <v>3.764178316183975</v>
@@ -34298,7 +34298,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M43" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N43" t="n">
         <v>64.78774396352233</v>
@@ -34310,13 +34310,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R43" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S43" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T43" t="n">
         <v>1.808960949495364</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.120147303969557</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H44" t="n">
-        <v>11.47170857677823</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I44" t="n">
-        <v>43.1844789362864</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07110224028629</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K44" t="n">
-        <v>142.4869376173177</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L44" t="n">
-        <v>176.7676456711761</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M44" t="n">
-        <v>196.6880652881447</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N44" t="n">
-        <v>199.8706838155482</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O44" t="n">
-        <v>188.7322190617009</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P44" t="n">
-        <v>161.0785824949524</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.9633071715426</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R44" t="n">
-        <v>70.36345308297777</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S44" t="n">
-        <v>25.52535668920632</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T44" t="n">
-        <v>4.90344482312674</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H45" t="n">
-        <v>5.788281937557224</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I45" t="n">
-        <v>20.63488338320808</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J45" t="n">
-        <v>56.62369719206183</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K45" t="n">
-        <v>96.77891739102829</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L45" t="n">
-        <v>130.1311976924479</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P45" t="n">
-        <v>114.446057673645</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.50415872418957</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R45" t="n">
-        <v>37.2111349264578</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S45" t="n">
-        <v>11.1323224366734</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T45" t="n">
-        <v>2.415727111995952</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H46" t="n">
-        <v>4.467321897400891</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I46" t="n">
-        <v>15.11032805378542</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J46" t="n">
-        <v>35.523887930559</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K46" t="n">
-        <v>58.37666037707908</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L46" t="n">
-        <v>74.70202690193675</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M46" t="n">
-        <v>78.76281337104653</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N46" t="n">
-        <v>76.89000971262699</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O46" t="n">
-        <v>71.02036897831189</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P46" t="n">
-        <v>60.77019480881533</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.07413292122656</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R46" t="n">
-        <v>22.59240705986175</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S46" t="n">
-        <v>8.756499056561861</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T46" t="n">
-        <v>2.146872486480999</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11490.26407868843</v>
+        <v>123254.1407346857</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9167573.323130397</v>
+        <v>9167573.323130395</v>
       </c>
     </row>
     <row r="8">
@@ -8695,16 +8695,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N11" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O11" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P11" t="n">
         <v>95.50771753390021</v>
@@ -8789,7 +8789,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8856,7 +8856,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N13" t="n">
         <v>62.89780050171086</v>
@@ -9406,16 +9406,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N20" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O20" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P20" t="n">
         <v>95.50771753390021</v>
@@ -9500,7 +9500,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,7 +9567,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N22" t="n">
         <v>62.89780050171086</v>
@@ -9643,16 +9643,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N23" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O23" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P23" t="n">
         <v>95.50771753390021</v>
@@ -9737,7 +9737,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9804,7 +9804,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N25" t="n">
         <v>62.89780050171086</v>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="C2" t="n">
         <v>64504.44331886782</v>
@@ -26322,37 +26322,37 @@
         <v>64504.44331886782</v>
       </c>
       <c r="E2" t="n">
+        <v>70000.02111109272</v>
+      </c>
+      <c r="F2" t="n">
         <v>70000.02111109273</v>
       </c>
-      <c r="F2" t="n">
-        <v>70000.0211110927</v>
-      </c>
       <c r="G2" t="n">
-        <v>70000.0211110927</v>
+        <v>70000.02111109275</v>
       </c>
       <c r="H2" t="n">
-        <v>70000.0211110927</v>
+        <v>70000.02111109273</v>
       </c>
       <c r="I2" t="n">
-        <v>70000.02111109273</v>
+        <v>70000.02111109272</v>
       </c>
       <c r="J2" t="n">
         <v>70000.02111109273</v>
       </c>
       <c r="K2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.0211110927</v>
       </c>
       <c r="L2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.02111109273</v>
       </c>
       <c r="M2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.02111109273</v>
       </c>
       <c r="N2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.02111109275</v>
       </c>
       <c r="O2" t="n">
-        <v>70000.02111109272</v>
+        <v>70000.02111109275</v>
       </c>
       <c r="P2" t="n">
         <v>70000.02111109275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21901.42258717318</v>
+        <v>-8265.816014141885</v>
       </c>
       <c r="C6" t="n">
-        <v>-21901.42258717318</v>
+        <v>-8265.816014141892</v>
       </c>
       <c r="D6" t="n">
-        <v>-21901.42258717318</v>
+        <v>-8265.816014141892</v>
       </c>
       <c r="E6" t="n">
-        <v>-154163.9464743156</v>
+        <v>-140940.5082357012</v>
       </c>
       <c r="F6" t="n">
-        <v>34459.04049622253</v>
+        <v>47682.47873483698</v>
       </c>
       <c r="G6" t="n">
-        <v>34459.04049622253</v>
+        <v>47682.47873483699</v>
       </c>
       <c r="H6" t="n">
-        <v>34459.04049622253</v>
+        <v>47682.47873483698</v>
       </c>
       <c r="I6" t="n">
-        <v>34459.04049622256</v>
+        <v>47682.47873483696</v>
       </c>
       <c r="J6" t="n">
-        <v>34459.04049622256</v>
+        <v>47682.47873483698</v>
       </c>
       <c r="K6" t="n">
-        <v>34459.04049622254</v>
+        <v>47682.47873483695</v>
       </c>
       <c r="L6" t="n">
-        <v>34459.04049622254</v>
+        <v>47682.47873483698</v>
       </c>
       <c r="M6" t="n">
-        <v>34459.04049622254</v>
+        <v>47682.47873483698</v>
       </c>
       <c r="N6" t="n">
-        <v>34459.04049622254</v>
+        <v>47682.47873483699</v>
       </c>
       <c r="O6" t="n">
-        <v>34459.04049622254</v>
+        <v>47682.47873483699</v>
       </c>
       <c r="P6" t="n">
-        <v>34459.04049622257</v>
+        <v>47682.47873483699</v>
       </c>
     </row>
   </sheetData>
@@ -31767,7 +31767,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M11" t="n">
         <v>165.7299311340341</v>
@@ -31776,7 +31776,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P11" t="n">
         <v>135.7252782213693</v>
@@ -31791,7 +31791,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U11" t="n">
         <v>0.07550714794001816</v>
@@ -31861,7 +31861,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R12" t="n">
         <v>31.35420961992052</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H13" t="n">
         <v>3.764178316183975</v>
@@ -31928,7 +31928,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N13" t="n">
         <v>64.78774396352233</v>
@@ -31940,13 +31940,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R13" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T13" t="n">
         <v>1.808960949495364</v>
@@ -32478,7 +32478,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M20" t="n">
         <v>165.7299311340341</v>
@@ -32487,7 +32487,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P20" t="n">
         <v>135.7252782213693</v>
@@ -32502,7 +32502,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U20" t="n">
         <v>0.07550714794001816</v>
@@ -32572,7 +32572,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R21" t="n">
         <v>31.35420961992052</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H22" t="n">
         <v>3.764178316183975</v>
@@ -32639,7 +32639,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N22" t="n">
         <v>64.78774396352233</v>
@@ -32651,13 +32651,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R22" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T22" t="n">
         <v>1.808960949495364</v>
@@ -32715,7 +32715,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M23" t="n">
         <v>165.7299311340341</v>
@@ -32724,7 +32724,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P23" t="n">
         <v>135.7252782213693</v>
@@ -32739,7 +32739,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U23" t="n">
         <v>0.07550714794001816</v>
@@ -32809,7 +32809,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R24" t="n">
         <v>31.35420961992052</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H25" t="n">
         <v>3.764178316183975</v>
@@ -32876,7 +32876,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N25" t="n">
         <v>64.78774396352233</v>
@@ -32888,13 +32888,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R25" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T25" t="n">
         <v>1.808960949495364</v>
